--- a/apps/load_data/2017/02/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/02/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY0217\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY0217\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E43B2-EEA1-4230-A0BA-049085E227B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEA715-D8C4-4CE9-B09D-8C7C2F2B6CDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$283</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$249</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11502" uniqueCount="2484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11488" uniqueCount="2483">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6341,9 +6342,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    114371    1143711081    296920    2969201082    159880    1598802001         0     385992006     37900     379002026    197868    1978682027      3068      30682086      2500      25002180       250       2502182       100       100</t>
@@ -8333,8 +8331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="K251" sqref="K251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB290" sqref="AB290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45407,12 +45405,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -45477,10 +45470,10 @@
         <v>112</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2107</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2108</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>115</v>
@@ -45489,7 +45482,7 @@
         <v>103</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>119</v>
@@ -45510,13 +45503,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2111</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45551,13 +45544,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2114</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2115</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45592,12 +45585,7 @@
       <c r="AB210" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -45644,7 +45632,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="BB210" s="1">
         <v>2</v>
@@ -45662,10 +45650,10 @@
         <v>112</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2117</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2118</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>115</v>
@@ -45677,13 +45665,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>119</v>
@@ -45707,13 +45695,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1748</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45748,13 +45736,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2124</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2125</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45789,12 +45777,7 @@
       <c r="AB211" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -45841,7 +45824,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BB211" s="1">
         <v>2</v>
@@ -45862,7 +45845,7 @@
         <v>112</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1425</v>
@@ -45877,13 +45860,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>119</v>
@@ -45907,13 +45890,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2131</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45948,13 +45931,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2134</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2135</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45986,12 +45969,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -46041,7 +46019,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="BB212" s="1">
         <v>2</v>
@@ -46059,7 +46037,7 @@
         <v>112</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>178</v>
@@ -46071,7 +46049,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>119</v>
@@ -46089,13 +46067,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46130,13 +46108,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2142</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2143</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46168,12 +46146,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -46223,7 +46196,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="BB213" s="1">
         <v>2</v>
@@ -46241,7 +46214,7 @@
         <v>112</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>542</v>
@@ -46253,7 +46226,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>119</v>
@@ -46274,10 +46247,10 @@
         <v>638</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2147</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2148</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46312,13 +46285,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2149</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2150</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2151</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46350,12 +46323,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -46405,7 +46373,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="BB214" s="1">
         <v>2</v>
@@ -46423,7 +46391,7 @@
         <v>112</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>178</v>
@@ -46435,7 +46403,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>119</v>
@@ -46453,13 +46421,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2155</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46494,13 +46462,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2158</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2159</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46538,12 +46506,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -46590,7 +46553,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="BB215" s="1">
         <v>2</v>
@@ -46599,7 +46562,7 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>110</v>
@@ -46611,10 +46574,10 @@
         <v>112</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2162</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2163</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>115</v>
@@ -46626,13 +46589,13 @@
         <v>116</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>119</v>
@@ -46650,13 +46613,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2168</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46691,13 +46654,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2171</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46729,12 +46692,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -46784,7 +46742,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BB216" s="1">
         <v>2</v>
@@ -46802,7 +46760,7 @@
         <v>112</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>178</v>
@@ -46814,7 +46772,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>119</v>
@@ -46832,13 +46790,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46873,13 +46831,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2179</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2180</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46911,12 +46869,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -46966,7 +46919,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BB217" s="1">
         <v>2</v>
@@ -46984,10 +46937,10 @@
         <v>112</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2182</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2183</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>115</v>
@@ -46999,7 +46952,7 @@
         <v>154</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>119</v>
@@ -47017,13 +46970,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47058,13 +47011,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2189</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2190</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -47096,12 +47049,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -47148,7 +47096,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BB218" s="1">
         <v>2</v>
@@ -47157,7 +47105,7 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>110</v>
@@ -47169,10 +47117,10 @@
         <v>112</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>115</v>
@@ -47184,13 +47132,13 @@
         <v>206</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>119</v>
@@ -47208,13 +47156,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>423</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47249,13 +47197,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2200</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2201</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47290,12 +47238,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -47345,7 +47288,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="BB219" s="1">
         <v>2</v>
@@ -47366,7 +47309,7 @@
         <v>112</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>778</v>
@@ -47378,7 +47321,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>119</v>
@@ -47399,13 +47342,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2205</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47440,13 +47383,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2210</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47478,12 +47421,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -47530,7 +47468,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="BB220" s="1">
         <v>2</v>
@@ -47551,10 +47489,10 @@
         <v>112</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2213</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>115</v>
@@ -47566,13 +47504,13 @@
         <v>116</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>119</v>
@@ -47590,13 +47528,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47631,13 +47569,13 @@
         <v>316</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2218</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47688,7 +47626,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47733,13 +47671,13 @@
         <v>112</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>119</v>
@@ -47763,10 +47701,10 @@
         <v>2006</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2224</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2225</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47801,13 +47739,13 @@
         <v>316</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2226</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2227</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2228</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47861,7 +47799,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47906,13 +47844,13 @@
         <v>112</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>119</v>
@@ -47933,13 +47871,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2233</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47974,13 +47912,13 @@
         <v>316</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -48034,7 +47972,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48079,13 +48017,13 @@
         <v>112</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>119</v>
@@ -48106,13 +48044,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48147,13 +48085,13 @@
         <v>316</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2243</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2244</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48249,13 +48187,13 @@
         <v>112</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>119</v>
@@ -48276,10 +48214,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>194</v>
@@ -48317,13 +48255,13 @@
         <v>316</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2250</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48377,7 +48315,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48422,13 +48360,13 @@
         <v>112</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>119</v>
@@ -48452,13 +48390,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48493,13 +48431,13 @@
         <v>316</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2256</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2257</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48550,7 +48488,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48595,13 +48533,13 @@
         <v>112</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>119</v>
@@ -48622,13 +48560,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2262</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48663,10 +48601,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2264</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48735,7 +48673,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48753,7 +48691,7 @@
         <v>220</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48788,10 +48726,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2266</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2267</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48875,7 +48813,7 @@
         <v>220</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -48910,13 +48848,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2270</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48997,7 +48935,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BB229" s="1">
         <v>2</v>
@@ -49015,7 +48953,7 @@
         <v>112</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1677</v>
@@ -49030,7 +48968,7 @@
         <v>154</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>119</v>
@@ -49048,13 +48986,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>423</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49089,13 +49027,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -49173,7 +49111,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BB230" s="1">
         <v>2</v>
@@ -49191,7 +49129,7 @@
         <v>112</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BI230" s="1" t="s">
         <v>2046</v>
@@ -49206,13 +49144,13 @@
         <v>206</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>119</v>
@@ -49230,13 +49168,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49271,13 +49209,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2287</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2288</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49355,7 +49293,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BB231" s="1">
         <v>2</v>
@@ -49373,10 +49311,10 @@
         <v>112</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2291</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>115</v>
@@ -49388,13 +49326,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>119</v>
@@ -49412,13 +49350,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2295</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49453,13 +49391,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49540,7 +49478,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BB232" s="1">
         <v>2</v>
@@ -49558,7 +49496,7 @@
         <v>112</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>115</v>
@@ -49567,7 +49505,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>119</v>
@@ -49585,13 +49523,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>797</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49626,13 +49564,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2307</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49668,7 +49606,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1686</v>
@@ -49713,7 +49651,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BB233" s="1">
         <v>2</v>
@@ -49731,7 +49669,7 @@
         <v>112</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>115</v>
@@ -49740,7 +49678,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>119</v>
@@ -49761,10 +49699,10 @@
         <v>1407</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2312</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49799,13 +49737,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49886,7 +49824,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="BB234" s="1">
         <v>2</v>
@@ -49904,7 +49842,7 @@
         <v>112</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1762</v>
@@ -49916,7 +49854,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>119</v>
@@ -49940,7 +49878,7 @@
         <v>861</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -49975,13 +49913,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -50020,7 +49958,7 @@
         <v>612</v>
       </c>
       <c r="AH235" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="AI235" s="1" t="s">
         <v>98</v>
@@ -50062,7 +50000,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB235" s="1">
         <v>2</v>
@@ -50080,10 +50018,10 @@
         <v>112</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2326</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2327</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>115</v>
@@ -50092,7 +50030,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>119</v>
@@ -50110,13 +50048,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2331</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50151,13 +50089,13 @@
         <v>316</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -50199,7 +50137,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50238,13 +50176,13 @@
         <v>112</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>119</v>
@@ -50262,13 +50200,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>298</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50303,13 +50241,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50351,7 +50289,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -50405,7 +50343,7 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>110</v>
@@ -50417,10 +50355,10 @@
         <v>112</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>115</v>
@@ -50432,13 +50370,13 @@
         <v>206</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>119</v>
@@ -50459,7 +50397,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>286</v>
@@ -50500,13 +50438,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2351</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50602,10 +50540,10 @@
         <v>112</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>115</v>
@@ -50617,13 +50555,13 @@
         <v>116</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>119</v>
@@ -50647,7 +50585,7 @@
         <v>628</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50682,13 +50620,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50784,7 +50722,7 @@
         <v>112</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>115</v>
@@ -50793,7 +50731,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>119</v>
@@ -50811,13 +50749,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50852,13 +50790,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -50897,7 +50835,7 @@
         <v>612</v>
       </c>
       <c r="AH240" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="AI240" s="1" t="s">
         <v>98</v>
@@ -50954,10 +50892,10 @@
         <v>112</v>
       </c>
       <c r="BH240" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="BI240" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="BI240" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>115</v>
@@ -50966,7 +50904,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>119</v>
@@ -50984,13 +50922,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="241" spans="1:84" x14ac:dyDescent="0.25">
@@ -51025,13 +50963,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -51070,7 +51008,7 @@
         <v>612</v>
       </c>
       <c r="AH241" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="AJ241" s="1" t="s">
         <v>107</v>
@@ -51127,10 +51065,10 @@
         <v>112</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>115</v>
@@ -51142,13 +51080,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>119</v>
@@ -51169,10 +51107,10 @@
         <v>505</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="242" spans="1:84" x14ac:dyDescent="0.25">
@@ -51207,13 +51145,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51309,7 +51247,7 @@
         <v>112</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BI242" s="1" t="s">
         <v>1799</v>
@@ -51324,13 +51262,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>119</v>
@@ -51351,10 +51289,10 @@
         <v>861</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2389</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="243" spans="1:84" x14ac:dyDescent="0.25">
@@ -51389,13 +51327,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2393</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51488,7 +51426,7 @@
         <v>112</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>115</v>
@@ -51500,13 +51438,13 @@
         <v>116</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>119</v>
@@ -51524,13 +51462,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="244" spans="1:84" x14ac:dyDescent="0.25">
@@ -51565,13 +51503,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2400</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2401</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51667,7 +51605,7 @@
         <v>112</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>1656</v>
@@ -51682,13 +51620,13 @@
         <v>116</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>119</v>
@@ -51706,13 +51644,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="245" spans="1:84" x14ac:dyDescent="0.25">
@@ -51747,13 +51685,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51849,7 +51787,7 @@
         <v>112</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>115</v>
@@ -51858,7 +51796,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>119</v>
@@ -51879,10 +51817,10 @@
         <v>1125</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="246" spans="1:84" x14ac:dyDescent="0.25">
@@ -51920,10 +51858,10 @@
         <v>248</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>250</v>
@@ -51956,7 +51894,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -52007,10 +51945,10 @@
         <v>251</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2418</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2419</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>115</v>
@@ -52084,16 +52022,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2421</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2422</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -52129,7 +52067,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -52180,16 +52118,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>218</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>115</v>
@@ -52198,7 +52136,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>119</v>
@@ -52222,7 +52160,7 @@
         <v>123</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="248" spans="1:84" x14ac:dyDescent="0.25">
@@ -52257,16 +52195,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -52296,7 +52234,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -52347,7 +52285,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>115</v>
@@ -52359,13 +52297,13 @@
         <v>206</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>119</v>
@@ -52386,13 +52324,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2438</v>
       </c>
     </row>
     <row r="249" spans="1:84" x14ac:dyDescent="0.25">
@@ -52427,16 +52365,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -52463,7 +52401,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -52514,7 +52452,7 @@
         <v>98</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>115</v>
@@ -52523,7 +52461,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>119</v>
@@ -52544,13 +52482,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="250" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -52598,7 +52536,7 @@
         <v>97</v>
       </c>
       <c r="P250" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="Q250" s="5">
         <v>24472</v>
@@ -52699,7 +52637,7 @@
         <v>112</v>
       </c>
       <c r="BH250" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI250" s="4"/>
       <c r="BJ250" s="4"/>
@@ -52797,7 +52735,7 @@
         <v>97</v>
       </c>
       <c r="P251" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="Q251" s="5">
         <v>24197</v>
@@ -52898,7 +52836,7 @@
         <v>112</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -52996,7 +52934,7 @@
         <v>97</v>
       </c>
       <c r="P252" s="4" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="Q252" s="5">
         <v>23589</v>
@@ -53099,7 +53037,7 @@
         <v>112</v>
       </c>
       <c r="BH252" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI252" s="4"/>
       <c r="BJ252" s="4"/>
@@ -53197,7 +53135,7 @@
         <v>97</v>
       </c>
       <c r="P253" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="Q253" s="5">
         <v>20035</v>
@@ -53305,7 +53243,7 @@
         <v>112</v>
       </c>
       <c r="BH253" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI253" s="4"/>
       <c r="BJ253" s="4"/>
@@ -53403,7 +53341,7 @@
         <v>97</v>
       </c>
       <c r="P254" s="4" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="Q254" s="5">
         <v>23640</v>
@@ -53509,7 +53447,7 @@
         <v>112</v>
       </c>
       <c r="BH254" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI254" s="4"/>
       <c r="BJ254" s="4"/>
@@ -53609,7 +53547,7 @@
         <v>97</v>
       </c>
       <c r="P255" s="4" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="Q255" s="5">
         <v>20996</v>
@@ -53714,7 +53652,7 @@
         <v>112</v>
       </c>
       <c r="BH255" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI255" s="4"/>
       <c r="BJ255" s="4"/>
@@ -53814,7 +53752,7 @@
         <v>97</v>
       </c>
       <c r="P256" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="Q256" s="5">
         <v>22517</v>
@@ -53918,7 +53856,7 @@
         <v>112</v>
       </c>
       <c r="BH256" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI256" s="4"/>
       <c r="BJ256" s="4"/>
@@ -54020,7 +53958,7 @@
         <v>97</v>
       </c>
       <c r="P257" s="4" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="Q257" s="5">
         <v>24031</v>
@@ -54126,7 +54064,7 @@
         <v>112</v>
       </c>
       <c r="BH257" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI257" s="4"/>
       <c r="BJ257" s="4"/>
@@ -54226,7 +54164,7 @@
         <v>97</v>
       </c>
       <c r="P258" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="Q258" s="5">
         <v>23708</v>
@@ -54331,7 +54269,7 @@
         <v>112</v>
       </c>
       <c r="BH258" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI258" s="4"/>
       <c r="BJ258" s="4"/>
@@ -54435,7 +54373,7 @@
         <v>97</v>
       </c>
       <c r="P259" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="Q259" s="5">
         <v>23013</v>
@@ -54543,7 +54481,7 @@
         <v>112</v>
       </c>
       <c r="BH259" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI259" s="4"/>
       <c r="BJ259" s="4"/>
@@ -54643,7 +54581,7 @@
         <v>97</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="Q260" s="5">
         <v>22907</v>
@@ -54751,7 +54689,7 @@
         <v>112</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -54849,7 +54787,7 @@
         <v>97</v>
       </c>
       <c r="P261" s="4" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="Q261" s="5">
         <v>24527</v>
@@ -54950,7 +54888,7 @@
         <v>112</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -55052,7 +54990,7 @@
         <v>97</v>
       </c>
       <c r="P262" s="4" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="Q262" s="5">
         <v>24849</v>
@@ -55158,7 +55096,7 @@
         <v>112</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -55262,7 +55200,7 @@
         <v>97</v>
       </c>
       <c r="P263" s="4" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="Q263" s="5">
         <v>24870</v>
@@ -55364,7 +55302,7 @@
         <v>112</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -55466,7 +55404,7 @@
         <v>97</v>
       </c>
       <c r="P264" s="4" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="Q264" s="5">
         <v>20980</v>
@@ -55567,7 +55505,7 @@
         <v>112</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -55669,7 +55607,7 @@
         <v>97</v>
       </c>
       <c r="P265" s="4" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="Q265" s="5">
         <v>25264</v>
@@ -55770,7 +55708,7 @@
         <v>112</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -55872,7 +55810,7 @@
         <v>97</v>
       </c>
       <c r="P266" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="Q266" s="5">
         <v>22935</v>
@@ -55976,7 +55914,7 @@
         <v>112</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -56078,7 +56016,7 @@
         <v>97</v>
       </c>
       <c r="P267" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="Q267" s="5">
         <v>27263</v>
@@ -56184,7 +56122,7 @@
         <v>112</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -56286,7 +56224,7 @@
         <v>97</v>
       </c>
       <c r="P268" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="Q268" s="5">
         <v>24278</v>
@@ -56387,7 +56325,7 @@
         <v>112</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -56480,7 +56418,7 @@
         <v>97</v>
       </c>
       <c r="P269" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="Q269" s="5">
         <v>26374</v>
@@ -56577,7 +56515,7 @@
         <v>112</v>
       </c>
       <c r="BH269" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI269" s="4"/>
       <c r="BJ269" s="4"/>
@@ -56677,7 +56615,7 @@
         <v>97</v>
       </c>
       <c r="P270" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="Q270" s="5">
         <v>25186</v>
@@ -56783,7 +56721,7 @@
         <v>112</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -56883,7 +56821,7 @@
         <v>97</v>
       </c>
       <c r="P271" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="Q271" s="5">
         <v>25726</v>
@@ -56986,7 +56924,7 @@
         <v>112</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -57077,7 +57015,7 @@
         <v>97</v>
       </c>
       <c r="P272" s="4" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="Q272" s="5">
         <v>26397</v>
@@ -57180,7 +57118,7 @@
         <v>112</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -57258,7 +57196,7 @@
         <v>316</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="L273" s="4" t="s">
         <v>1881</v>
@@ -57311,7 +57249,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="AO273" s="4">
         <v>0</v>
@@ -57419,7 +57357,7 @@
         <v>316</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="L274" s="4" t="s">
         <v>1902</v>
@@ -57472,7 +57410,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="AO274" s="4">
         <v>0</v>
@@ -57593,7 +57531,7 @@
         <v>97</v>
       </c>
       <c r="P275" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="Q275" s="5">
         <v>26655</v>
@@ -57696,7 +57634,7 @@
         <v>112</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -57776,20 +57714,20 @@
         <v>93</v>
       </c>
       <c r="K276" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="L276" s="4" t="s">
         <v>2113</v>
-      </c>
-      <c r="L276" s="4" t="s">
-        <v>2114</v>
       </c>
       <c r="M276" s="4"/>
       <c r="N276" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="O276" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P276" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="Q276" s="5">
         <v>27241</v>
@@ -57820,12 +57758,8 @@
       <c r="AB276" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="AC276" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD276" s="4" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC276" s="5"/>
+      <c r="AD276" s="4"/>
       <c r="AF276" s="4" t="s">
         <v>104</v>
       </c>
@@ -57879,7 +57813,7 @@
         <v>98</v>
       </c>
       <c r="AZ276" s="4" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="BA276" s="4" t="s">
         <v>267</v>
@@ -57897,7 +57831,7 @@
         <v>112</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -57913,13 +57847,13 @@
       <c r="BP276" s="4"/>
       <c r="BQ276" s="4"/>
       <c r="BR276" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="BS276" s="5">
         <v>36949</v>
       </c>
       <c r="BT276" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="BU276" s="4" t="s">
         <v>119</v>
@@ -57944,13 +57878,13 @@
         <v>98</v>
       </c>
       <c r="CC276" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="CD276" s="4" t="s">
         <v>1748</v>
       </c>
       <c r="CE276" s="4" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="CF276" s="4"/>
     </row>
@@ -57986,22 +57920,22 @@
         <v>93</v>
       </c>
       <c r="K277" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="L277" s="4" t="s">
         <v>2123</v>
-      </c>
-      <c r="L277" s="4" t="s">
-        <v>2124</v>
       </c>
       <c r="M277" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N277" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="O277" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P277" s="4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="Q277" s="5">
         <v>25223</v>
@@ -58032,12 +57966,8 @@
       <c r="AB277" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="AC277" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD277" s="4" t="s">
-        <v>2106</v>
-      </c>
+      <c r="AC277" s="5"/>
+      <c r="AD277" s="4"/>
       <c r="AF277" s="4" t="s">
         <v>104</v>
       </c>
@@ -58091,7 +58021,7 @@
         <v>98</v>
       </c>
       <c r="AZ277" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BA277" s="4" t="s">
         <v>267</v>
@@ -58111,7 +58041,7 @@
         <v>112</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -58127,13 +58057,13 @@
       <c r="BP277" s="4"/>
       <c r="BQ277" s="4"/>
       <c r="BR277" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BS277" s="5">
         <v>36825</v>
       </c>
       <c r="BT277" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="BU277" s="4" t="s">
         <v>119</v>
@@ -58158,13 +58088,13 @@
         <v>98</v>
       </c>
       <c r="CC277" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="CD277" s="4" t="s">
         <v>2130</v>
       </c>
-      <c r="CD277" s="4" t="s">
+      <c r="CE277" s="4" t="s">
         <v>2131</v>
-      </c>
-      <c r="CE277" s="4" t="s">
-        <v>2132</v>
       </c>
       <c r="CF277" s="4"/>
     </row>
@@ -58200,10 +58130,10 @@
         <v>316</v>
       </c>
       <c r="K278" s="4" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="L278" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
@@ -58253,7 +58183,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="AO278" s="4">
         <v>0</v>
@@ -58325,7 +58255,7 @@
       </c>
       <c r="CD278" s="4"/>
       <c r="CE278" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="CF278" s="4"/>
     </row>
@@ -58361,10 +58291,10 @@
         <v>316</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="M279" s="4"/>
       <c r="N279" s="4"/>
@@ -58414,7 +58344,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="AO279" s="4">
         <v>0</v>
@@ -58486,7 +58416,7 @@
       </c>
       <c r="CD279" s="4"/>
       <c r="CE279" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="CF279" s="4"/>
     </row>
@@ -58522,10 +58452,10 @@
         <v>316</v>
       </c>
       <c r="K280" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="L280" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
@@ -58575,7 +58505,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="AO280" s="4">
         <v>0</v>
@@ -58647,7 +58577,7 @@
       </c>
       <c r="CD280" s="4"/>
       <c r="CE280" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="CF280" s="4"/>
     </row>
@@ -58683,22 +58613,22 @@
         <v>93</v>
       </c>
       <c r="K281" s="4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L281" s="4" t="s">
         <v>2286</v>
-      </c>
-      <c r="L281" s="4" t="s">
-        <v>2287</v>
       </c>
       <c r="M281" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N281" s="4" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="O281" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P281" s="4" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="Q281" s="5">
         <v>25589</v>
@@ -58781,7 +58711,7 @@
         <v>98</v>
       </c>
       <c r="AZ281" s="4" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BA281" s="4" t="s">
         <v>267</v>
@@ -58799,7 +58729,7 @@
         <v>112</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -58815,13 +58745,13 @@
       <c r="BP281" s="4"/>
       <c r="BQ281" s="4"/>
       <c r="BR281" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BS281" s="5">
         <v>37735</v>
       </c>
       <c r="BT281" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BU281" s="4" t="s">
         <v>119</v>
@@ -58842,13 +58772,13 @@
         <v>98</v>
       </c>
       <c r="CC281" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="CD281" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="CD281" s="4" t="s">
+      <c r="CE281" s="4" t="s">
         <v>2295</v>
-      </c>
-      <c r="CE281" s="4" t="s">
-        <v>2296</v>
       </c>
       <c r="CF281" s="4"/>
     </row>
@@ -58884,10 +58814,10 @@
         <v>316</v>
       </c>
       <c r="K282" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="L282" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="M282" s="4"/>
       <c r="N282" s="4"/>
@@ -58935,7 +58865,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="AO282" s="4">
         <v>0</v>
@@ -59005,7 +58935,7 @@
       </c>
       <c r="CD282" s="4"/>
       <c r="CE282" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="CF282" s="4"/>
     </row>
@@ -59041,20 +58971,20 @@
         <v>93</v>
       </c>
       <c r="K283" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L283" s="4" t="s">
         <v>2349</v>
-      </c>
-      <c r="L283" s="4" t="s">
-        <v>2350</v>
       </c>
       <c r="M283" s="4"/>
       <c r="N283" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="O283" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P283" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="Q283" s="5">
         <v>30023</v>
@@ -59155,7 +59085,7 @@
         <v>112</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -59171,13 +59101,13 @@
       <c r="BP283" s="4"/>
       <c r="BQ283" s="4"/>
       <c r="BR283" s="4" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BS283" s="5">
         <v>37747</v>
       </c>
       <c r="BT283" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU283" s="4" t="s">
         <v>119</v>
@@ -59204,11 +59134,12 @@
         <v>628</v>
       </c>
       <c r="CE283" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="CF283" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF283" xr:uid="{8075E632-84F5-4430-A813-DFC322FC110F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>